--- a/Scopes_01.testcases.xlsx
+++ b/Scopes_01.testcases.xlsx
@@ -220,22 +220,22 @@
 A02/01 Testfall Nachbedingung</t>
   </si>
   <si>
-    <t>Diese Datei wurde erzeugt durch LF-ET 2.2.1 (230323a) und Kommandozeile:</t>
-  </si>
-  <si>
-    <t>-GenTest "D:/LF/Projekte/lfet-help-de_workstuff/test_generation/scopes/Scopes_01.lfet" -Group "Einfach" -NonExecutableRules "50" -RecommendedTestCases -Protocol -ExportExcel "./Scopes_01.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
+    <t>Diese Datei wurde erzeugt durch LF-ET 2.2.1 (230325a) und Kommandozeile:</t>
+  </si>
+  <si>
+    <t>-GenTest "D:/LF/Projekte/rulebased.group/lfet-examples-scope-de/Scopes_01.lfet" -Group "Einfach" -NonExecutableRules "50" -RecommendedTestCases -Protocol -ExportExcel "Scopes_01.testcases.xlsx" -OpenFileOut -OpenDirectoryOut</t>
   </si>
   <si>
     <t>Aktueller Benutzer: lfhl</t>
   </si>
   <si>
-    <t>Aktuelles Verzeichnis (user.dir): "D:\LF\Projekte\lfet-help-de_workstuff\test_generation\scopes"</t>
-  </si>
-  <si>
-    <t>Benötigte Zeit: 00:00:00.468 (25.03.2023 10:11:27.156 - 25.03.2023 10:11:27.624)</t>
-  </si>
-  <si>
-    <t>Entscheidungstabelle: D:\LF\Projekte\lfet-help-de_workstuff\test_generation\scopes\Scopes_01.lfet</t>
+    <t>Aktuelles Verzeichnis (user.dir): "C:\Program Files\JetBrains\IntelliJ IDEA Community Edition 2022.1.2\jbr\bin"</t>
+  </si>
+  <si>
+    <t>Benötigte Zeit: 00:00:00.548 (25.03.2023 20:05:14.252 - 25.03.2023 20:05:14.800)</t>
+  </si>
+  <si>
+    <t>Entscheidungstabelle: D:\LF\Projekte\rulebased.group\lfet-examples-scope-de\Scopes_01.lfet</t>
   </si>
   <si>
     <t>Regelauswahl und Regelsortierung: Alle Regeln, Standardsortierung</t>
